--- a/data/trans_orig/P36B13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDFDA9B4-E2FE-4893-AB50-EDD322CD265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCAA36BA-5A1E-4A3C-AA3B-01BF49BAE3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{80ECBD0F-3F3D-4E05-9484-33920D18BC5A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12674F2A-18F0-4F71-B7B4-B8FF9CA7B874}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="720">
-  <si>
-    <t>Población según la frecuencia de consumición de comida rápida en 2015 (Tasa respuesta: 99,44%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="704">
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2015 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>32,71%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
   </si>
   <si>
     <t>34,35%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -105,2056 +105,2008 @@
     <t>22,68%</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>26,38%</t>
   </si>
   <si>
-    <t>21,83%</t>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>32,08%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>35,69%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>0,11%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>38,46%</t>
   </si>
   <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>24,58%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>6,4%</t>
@@ -2163,31 +2115,31 @@
     <t>5,41%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>0,51%</t>
@@ -2196,7 +2148,7 @@
     <t>1,35%</t>
   </si>
   <si>
-    <t>4,59%</t>
+    <t>4,71%</t>
   </si>
 </sst>
 </file>
@@ -2608,7 +2560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFEF073-3E04-4C28-8404-9A8DBBEA99B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07727F36-917C-4A38-8DCF-61DE394409D6}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3109,10 +3061,10 @@
         <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -3121,13 +3073,13 @@
         <v>282903</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3094,13 @@
         <v>181818</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>172</v>
@@ -3157,13 +3109,13 @@
         <v>179036</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>341</v>
@@ -3172,13 +3124,13 @@
         <v>360854</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3145,13 @@
         <v>62407</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -3208,13 +3160,13 @@
         <v>39112</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -3223,13 +3175,13 @@
         <v>101519</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3196,13 @@
         <v>5191</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3259,13 +3211,13 @@
         <v>985</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3274,13 +3226,13 @@
         <v>6175</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,7 +3288,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3348,13 +3300,13 @@
         <v>57750</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>95</v>
@@ -3363,13 +3315,13 @@
         <v>103245</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -3378,13 +3330,13 @@
         <v>160995</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,7 +3351,7 @@
         <v>101272</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>115</v>
@@ -3453,10 +3405,10 @@
         <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>86</v>
@@ -3465,13 +3417,13 @@
         <v>81485</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>185</v>
@@ -3480,13 +3432,13 @@
         <v>177436</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3453,13 @@
         <v>49255</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -3516,13 +3468,13 @@
         <v>31046</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -3531,13 +3483,13 @@
         <v>80301</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3504,13 @@
         <v>11411</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3567,13 +3519,13 @@
         <v>2907</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3582,13 +3534,13 @@
         <v>14317</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3596,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3656,13 +3608,13 @@
         <v>126311</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
@@ -3671,13 +3623,13 @@
         <v>163383</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>270</v>
@@ -3686,13 +3638,13 @@
         <v>289694</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3659,13 @@
         <v>79130</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>84</v>
@@ -3722,13 +3674,13 @@
         <v>90215</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>158</v>
@@ -3737,13 +3689,13 @@
         <v>169345</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3710,13 @@
         <v>117129</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>104</v>
@@ -3773,13 +3725,13 @@
         <v>107348</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="M24" s="7">
         <v>215</v>
@@ -3788,13 +3740,13 @@
         <v>224476</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3761,13 @@
         <v>38040</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3824,13 +3776,13 @@
         <v>18257</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -3839,13 +3791,13 @@
         <v>56297</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,13 +3812,13 @@
         <v>8456</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3875,13 +3827,13 @@
         <v>3678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -3890,13 +3842,13 @@
         <v>12134</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,7 +3904,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3964,13 +3916,13 @@
         <v>64665</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -3979,13 +3931,13 @@
         <v>80448</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -3994,13 +3946,13 @@
         <v>145113</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +3967,13 @@
         <v>76468</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>83</v>
@@ -4030,13 +3982,13 @@
         <v>82841</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>160</v>
@@ -4045,13 +3997,13 @@
         <v>159309</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4018,13 @@
         <v>49100</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>48</v>
@@ -4081,13 +4033,13 @@
         <v>43972</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>96</v>
@@ -4096,13 +4048,13 @@
         <v>93072</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4069,13 @@
         <v>18930</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -4132,13 +4084,13 @@
         <v>9504</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -4147,13 +4099,13 @@
         <v>28433</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4120,13 @@
         <v>993</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4183,13 +4135,13 @@
         <v>914</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -4198,13 +4150,13 @@
         <v>1907</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,7 +4212,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4272,13 +4224,13 @@
         <v>107271</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>134</v>
@@ -4287,13 +4239,13 @@
         <v>145428</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>240</v>
@@ -4302,13 +4254,13 @@
         <v>252699</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4275,13 @@
         <v>81660</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>66</v>
@@ -4338,13 +4290,13 @@
         <v>65455</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>146</v>
@@ -4353,13 +4305,13 @@
         <v>147116</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4326,13 @@
         <v>57743</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>54</v>
@@ -4389,13 +4341,13 @@
         <v>53171</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>110</v>
@@ -4404,13 +4356,13 @@
         <v>110914</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4377,13 @@
         <v>13427</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -4440,13 +4392,13 @@
         <v>9060</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>23</v>
@@ -4455,13 +4407,13 @@
         <v>22487</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4428,13 @@
         <v>3022</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4491,13 +4443,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4506,13 +4458,13 @@
         <v>3022</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,7 +4520,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4580,13 +4532,13 @@
         <v>185126</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>202</v>
@@ -4595,13 +4547,13 @@
         <v>227469</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>369</v>
@@ -4610,13 +4562,13 @@
         <v>412595</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4583,13 @@
         <v>231991</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H41" s="7">
         <v>229</v>
@@ -4646,13 +4598,13 @@
         <v>240423</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>431</v>
@@ -4661,13 +4613,13 @@
         <v>472414</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4634,13 @@
         <v>171654</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>172</v>
@@ -4697,13 +4649,13 @@
         <v>177505</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>323</v>
@@ -4715,10 +4667,10 @@
         <v>24</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4685,13 @@
         <v>48084</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -4748,13 +4700,13 @@
         <v>32107</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M43" s="7">
         <v>74</v>
@@ -4763,13 +4715,13 @@
         <v>80192</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4736,13 @@
         <v>6619</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -4799,13 +4751,13 @@
         <v>2756</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>97</v>
+        <v>311</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M44" s="7">
         <v>9</v>
@@ -4814,13 +4766,13 @@
         <v>9376</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,7 +4828,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4888,13 +4840,13 @@
         <v>189061</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>199</v>
@@ -4903,13 +4855,13 @@
         <v>236680</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>385</v>
@@ -4921,10 +4873,10 @@
         <v>66</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>325</v>
+        <v>27</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4891,13 @@
         <v>226252</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H47" s="7">
         <v>241</v>
@@ -4954,13 +4906,13 @@
         <v>258133</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M47" s="7">
         <v>456</v>
@@ -4969,13 +4921,13 @@
         <v>484385</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +4942,13 @@
         <v>253706</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H48" s="7">
         <v>229</v>
@@ -5005,13 +4957,13 @@
         <v>240623</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>338</v>
+        <v>210</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M48" s="7">
         <v>473</v>
@@ -5020,13 +4972,13 @@
         <v>494329</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +4993,13 @@
         <v>106527</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H49" s="7">
         <v>72</v>
@@ -5056,13 +5008,13 @@
         <v>76172</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M49" s="7">
         <v>174</v>
@@ -5071,13 +5023,13 @@
         <v>182699</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5044,13 @@
         <v>2012</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H50" s="7">
         <v>9</v>
@@ -5107,13 +5059,13 @@
         <v>8852</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M50" s="7">
         <v>11</v>
@@ -5122,13 +5074,13 @@
         <v>10864</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5148,13 @@
         <v>950074</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H52" s="7">
         <v>1079</v>
@@ -5211,13 +5163,13 @@
         <v>1209170</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>365</v>
+        <v>285</v>
       </c>
       <c r="M52" s="7">
         <v>2000</v>
@@ -5226,13 +5178,13 @@
         <v>2159245</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>251</v>
+        <v>360</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5199,13 @@
         <v>991874</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="H53" s="7">
         <v>1034</v>
@@ -5262,13 +5214,13 @@
         <v>1084925</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M53" s="7">
         <v>1969</v>
@@ -5277,13 +5229,13 @@
         <v>2076800</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5250,13 @@
         <v>1012881</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H54" s="7">
         <v>933</v>
@@ -5313,13 +5265,13 @@
         <v>950747</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M54" s="7">
         <v>1885</v>
@@ -5328,13 +5280,13 @@
         <v>1963628</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5301,13 @@
         <v>372357</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>304</v>
+        <v>381</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H55" s="7">
         <v>247</v>
@@ -5364,13 +5316,13 @@
         <v>250515</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M55" s="7">
         <v>607</v>
@@ -5379,13 +5331,13 @@
         <v>622872</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5352,13 @@
         <v>46579</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H56" s="7">
         <v>26</v>
@@ -5415,13 +5367,13 @@
         <v>25788</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>395</v>
+        <v>226</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M56" s="7">
         <v>71</v>
@@ -5430,13 +5382,13 @@
         <v>72367</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>398</v>
+        <v>142</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,7 +5400,7 @@
         <v>3213</v>
       </c>
       <c r="D57" s="7">
-        <v>3373766</v>
+        <v>3373765</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>58</v>
@@ -5492,7 +5444,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5516,7 +5468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E47C499-6EC6-46FE-8D04-633D11AF8CB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11343723-A5C9-4D1F-9B00-31ED6DEA7746}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5533,7 +5485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5640,13 +5592,13 @@
         <v>104486</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>294</v>
@@ -5655,13 +5607,13 @@
         <v>136211</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>449</v>
@@ -5670,13 +5622,13 @@
         <v>240697</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5643,13 @@
         <v>133531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>215</v>
@@ -5706,13 +5658,13 @@
         <v>115007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>362</v>
@@ -5721,13 +5673,13 @@
         <v>248537</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5694,13 @@
         <v>22281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -5757,13 +5709,13 @@
         <v>18859</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M6" s="7">
         <v>57</v>
@@ -5772,13 +5724,13 @@
         <v>41140</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5745,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>428</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5808,13 +5760,13 @@
         <v>1326</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5823,13 +5775,13 @@
         <v>1326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>432</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5796,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>428</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5859,13 +5811,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5874,13 +5826,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5900,13 @@
         <v>133048</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="H10" s="7">
         <v>294</v>
@@ -5963,13 +5915,13 @@
         <v>203561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>413</v>
@@ -5978,13 +5930,13 @@
         <v>336610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +5951,13 @@
         <v>233470</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>281</v>
@@ -6014,13 +5966,13 @@
         <v>224105</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>459</v>
@@ -6029,13 +5981,13 @@
         <v>457576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6002,13 @@
         <v>133387</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H12" s="7">
         <v>125</v>
@@ -6065,13 +6017,13 @@
         <v>112182</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>455</v>
+        <v>125</v>
       </c>
       <c r="M12" s="7">
         <v>199</v>
@@ -6080,13 +6032,13 @@
         <v>245569</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>456</v>
+        <v>296</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6053,13 @@
         <v>17930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -6116,13 +6068,13 @@
         <v>12462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>463</v>
+        <v>103</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -6131,13 +6083,13 @@
         <v>30392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6104,13 @@
         <v>1462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6167,13 +6119,13 @@
         <v>760</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -6182,13 +6134,13 @@
         <v>2221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>472</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,7 +6196,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6256,13 +6208,13 @@
         <v>84469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>474</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>215</v>
@@ -6271,13 +6223,13 @@
         <v>129236</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="M16" s="7">
         <v>335</v>
@@ -6286,13 +6238,13 @@
         <v>213705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6259,13 @@
         <v>118624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -6322,13 +6274,13 @@
         <v>134725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>486</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -6337,13 +6289,13 @@
         <v>253349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,13 +6310,13 @@
         <v>101306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>479</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="H18" s="7">
         <v>113</v>
@@ -6373,13 +6325,13 @@
         <v>88317</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>493</v>
+        <v>249</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>381</v>
+        <v>482</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
@@ -6388,13 +6340,13 @@
         <v>189623</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,13 +6361,13 @@
         <v>12603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6424,13 +6376,13 @@
         <v>13432</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -6439,13 +6391,13 @@
         <v>26035</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>506</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,13 +6412,13 @@
         <v>925</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>495</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6475,13 +6427,13 @@
         <v>1163</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -6490,13 +6442,13 @@
         <v>2088</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,7 +6504,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6564,13 +6516,13 @@
         <v>74444</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H22" s="7">
         <v>266</v>
@@ -6579,13 +6531,13 @@
         <v>136316</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -6594,13 +6546,13 @@
         <v>210760</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>520</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +6567,13 @@
         <v>143475</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
@@ -6630,13 +6582,13 @@
         <v>168276</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>525</v>
+        <v>198</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="M23" s="7">
         <v>352</v>
@@ -6645,13 +6597,13 @@
         <v>311751</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +6618,13 @@
         <v>88188</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="H24" s="7">
         <v>96</v>
@@ -6681,13 +6633,13 @@
         <v>117776</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>533</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="M24" s="7">
         <v>155</v>
@@ -6696,13 +6648,13 @@
         <v>205964</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>535</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6669,13 @@
         <v>16133</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -6732,13 +6684,13 @@
         <v>4279</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>540</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -6747,13 +6699,13 @@
         <v>20412</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>264</v>
+        <v>526</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6720,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -6783,13 +6735,13 @@
         <v>1909</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -6798,13 +6750,13 @@
         <v>1909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,7 +6812,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6872,13 +6824,13 @@
         <v>24842</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -6887,13 +6839,13 @@
         <v>24193</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>310</v>
+        <v>534</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="M28" s="7">
         <v>93</v>
@@ -6902,13 +6854,13 @@
         <v>49034</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6875,13 @@
         <v>119531</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="H29" s="7">
         <v>328</v>
@@ -6938,13 +6890,13 @@
         <v>155608</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="M29" s="7">
         <v>500</v>
@@ -6953,13 +6905,13 @@
         <v>275138</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +6926,13 @@
         <v>49140</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>565</v>
+        <v>478</v>
       </c>
       <c r="H30" s="7">
         <v>102</v>
@@ -6989,13 +6941,13 @@
         <v>49184</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -7004,13 +6956,13 @@
         <v>98324</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>569</v>
+        <v>107</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +6977,13 @@
         <v>3236</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>232</v>
+        <v>555</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -7040,13 +6992,13 @@
         <v>2056</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>192</v>
+        <v>558</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>508</v>
+        <v>559</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -7055,13 +7007,13 @@
         <v>5291</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>274</v>
+        <v>556</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>575</v>
+        <v>461</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7091,13 +7043,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7106,13 +7058,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,7 +7120,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7180,13 +7132,13 @@
         <v>87390</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="H34" s="7">
         <v>238</v>
@@ -7195,13 +7147,13 @@
         <v>111798</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="M34" s="7">
         <v>392</v>
@@ -7210,13 +7162,13 @@
         <v>199188</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>287</v>
+        <v>570</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7183,13 @@
         <v>105528</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>586</v>
+        <v>339</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="H35" s="7">
         <v>172</v>
@@ -7246,13 +7198,13 @@
         <v>121514</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="M35" s="7">
         <v>303</v>
@@ -7261,13 +7213,13 @@
         <v>227042</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>591</v>
+        <v>116</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>592</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7234,13 @@
         <v>74624</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>593</v>
+        <v>12</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>595</v>
+        <v>368</v>
       </c>
       <c r="H36" s="7">
         <v>49</v>
@@ -7297,13 +7249,13 @@
         <v>40692</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>597</v>
+        <v>536</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="M36" s="7">
         <v>126</v>
@@ -7312,13 +7264,13 @@
         <v>115315</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>601</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,13 +7285,13 @@
         <v>8798</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>317</v>
+        <v>584</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7348,13 +7300,13 @@
         <v>1618</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -7363,13 +7315,13 @@
         <v>10417</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>353</v>
+        <v>589</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,13 +7336,13 @@
         <v>883</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>608</v>
+        <v>555</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7399,13 +7351,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -7414,13 +7366,13 @@
         <v>883</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,7 +7428,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7488,13 +7440,13 @@
         <v>197067</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="H40" s="7">
         <v>409</v>
@@ -7503,13 +7455,13 @@
         <v>379949</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>415</v>
+        <v>237</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="M40" s="7">
         <v>622</v>
@@ -7518,13 +7470,13 @@
         <v>577016</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7491,13 @@
         <v>215549</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>618</v>
+        <v>571</v>
       </c>
       <c r="H41" s="7">
         <v>337</v>
@@ -7554,13 +7506,13 @@
         <v>238057</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="M41" s="7">
         <v>550</v>
@@ -7569,13 +7521,13 @@
         <v>453606</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>623</v>
+        <v>484</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7542,13 @@
         <v>151819</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>62</v>
+        <v>367</v>
       </c>
       <c r="H42" s="7">
         <v>174</v>
@@ -7605,13 +7557,13 @@
         <v>152201</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>512</v>
+        <v>610</v>
       </c>
       <c r="M42" s="7">
         <v>298</v>
@@ -7620,13 +7572,13 @@
         <v>304020</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7593,13 @@
         <v>46320</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>536</v>
+        <v>615</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="H43" s="7">
         <v>33</v>
@@ -7656,13 +7608,13 @@
         <v>30635</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>635</v>
+        <v>97</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="M43" s="7">
         <v>68</v>
@@ -7671,13 +7623,13 @@
         <v>76955</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,13 +7644,13 @@
         <v>17000</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -7707,13 +7659,13 @@
         <v>1816</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>645</v>
+        <v>101</v>
       </c>
       <c r="M44" s="7">
         <v>19</v>
@@ -7722,13 +7674,13 @@
         <v>18815</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>646</v>
+        <v>50</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>648</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,7 +7736,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7796,13 +7748,13 @@
         <v>168644</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>166</v>
+        <v>630</v>
       </c>
       <c r="H46" s="7">
         <v>337</v>
@@ -7811,13 +7763,13 @@
         <v>238134</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="M46" s="7">
         <v>518</v>
@@ -7826,13 +7778,13 @@
         <v>406777</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7799,13 @@
         <v>230602</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="H47" s="7">
         <v>333</v>
@@ -7862,13 +7814,13 @@
         <v>274645</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>660</v>
+        <v>36</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="M47" s="7">
         <v>556</v>
@@ -7877,13 +7829,13 @@
         <v>505247</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>663</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7850,13 @@
         <v>282590</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>665</v>
+        <v>336</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="H48" s="7">
         <v>319</v>
@@ -7913,13 +7865,13 @@
         <v>281913</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>367</v>
+        <v>645</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>336</v>
+        <v>646</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>14</v>
+        <v>647</v>
       </c>
       <c r="M48" s="7">
         <v>578</v>
@@ -7928,13 +7880,13 @@
         <v>564502</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>326</v>
+        <v>649</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,13 +7901,13 @@
         <v>111313</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="H49" s="7">
         <v>69</v>
@@ -7964,13 +7916,13 @@
         <v>69093</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="M49" s="7">
         <v>157</v>
@@ -7979,13 +7931,13 @@
         <v>180406</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8000,13 +7952,13 @@
         <v>66279</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>264</v>
+        <v>56</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -8015,13 +7967,13 @@
         <v>4649</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>355</v>
+        <v>662</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>275</v>
+        <v>663</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -8030,13 +7982,13 @@
         <v>70929</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8056,13 @@
         <v>874389</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>685</v>
+        <v>32</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="H52" s="7">
         <v>2109</v>
@@ -8119,13 +8071,13 @@
         <v>1359399</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="M52" s="7">
         <v>3185</v>
@@ -8134,13 +8086,13 @@
         <v>2233788</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>691</v>
+        <v>71</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8107,13 @@
         <v>1300309</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>618</v>
+        <v>675</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>119</v>
+        <v>677</v>
       </c>
       <c r="H53" s="7">
         <v>2077</v>
@@ -8170,13 +8122,13 @@
         <v>1431937</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="M53" s="7">
         <v>3392</v>
@@ -8185,13 +8137,13 @@
         <v>2732246</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8206,13 +8158,13 @@
         <v>903335</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>700</v>
+        <v>632</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>284</v>
+        <v>684</v>
       </c>
       <c r="H54" s="7">
         <v>1006</v>
@@ -8224,10 +8176,10 @@
         <v>21</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="M54" s="7">
         <v>1789</v>
@@ -8236,13 +8188,13 @@
         <v>1764458</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8257,13 +8209,13 @@
         <v>216333</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>708</v>
+        <v>179</v>
       </c>
       <c r="H55" s="7">
         <v>144</v>
@@ -8272,13 +8224,13 @@
         <v>134902</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="M55" s="7">
         <v>313</v>
@@ -8287,13 +8239,13 @@
         <v>351235</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>51</v>
+        <v>697</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8308,13 +8260,13 @@
         <v>86549</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="H56" s="7">
         <v>14</v>
@@ -8323,13 +8275,13 @@
         <v>10296</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>716</v>
+        <v>460</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="M56" s="7">
         <v>42</v>
@@ -8338,13 +8290,13 @@
         <v>96845</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>428</v>
+        <v>273</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,7 +8338,7 @@
         <v>8721</v>
       </c>
       <c r="N57" s="7">
-        <v>7178572</v>
+        <v>7178571</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>58</v>
@@ -8400,7 +8352,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCAA36BA-5A1E-4A3C-AA3B-01BF49BAE3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9423A8-6539-4930-BD5C-5C6BBCB05AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12674F2A-18F0-4F71-B7B4-B8FF9CA7B874}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA753A28-C6FD-429B-8297-E3CB0B9F52E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="704">
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2015 (Tasa respuesta: 99,44%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="714">
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,2044 +75,2074 @@
     <t>32,71%</t>
   </si>
   <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
     <t>26,92%</t>
   </si>
   <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
   </si>
   <si>
     <t>29,57%</t>
   </si>
   <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
   </si>
   <si>
     <t>3,55%</t>
@@ -2560,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07727F36-917C-4A38-8DCF-61DE394409D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F53608-667C-4105-A3EC-5EE3127D4586}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3046,10 +3076,10 @@
         <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>143</v>
@@ -3058,10 +3088,10 @@
         <v>154071</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>73</v>
@@ -3405,10 +3435,10 @@
         <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>86</v>
@@ -3417,13 +3447,13 @@
         <v>81485</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>185</v>
@@ -3432,13 +3462,13 @@
         <v>177436</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3483,13 @@
         <v>49255</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -3468,13 +3498,13 @@
         <v>31046</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -3483,13 +3513,13 @@
         <v>80301</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3534,13 @@
         <v>11411</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3519,13 +3549,13 @@
         <v>2907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3534,13 +3564,13 @@
         <v>14317</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3626,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3608,13 +3638,13 @@
         <v>126311</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
@@ -3623,13 +3653,13 @@
         <v>163383</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>270</v>
@@ -3638,13 +3668,13 @@
         <v>289694</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3689,13 @@
         <v>79130</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>84</v>
@@ -3674,13 +3704,13 @@
         <v>90215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>158</v>
@@ -3689,13 +3719,13 @@
         <v>169345</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3740,13 @@
         <v>117129</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>104</v>
@@ -3725,13 +3755,13 @@
         <v>107348</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>215</v>
@@ -3740,13 +3770,13 @@
         <v>224476</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3791,13 @@
         <v>38040</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3776,13 +3806,13 @@
         <v>18257</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -3791,13 +3821,13 @@
         <v>56297</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3842,13 @@
         <v>8456</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3827,13 +3857,13 @@
         <v>3678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -3842,13 +3872,13 @@
         <v>12134</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,7 +3934,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3916,13 +3946,13 @@
         <v>64665</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -3931,13 +3961,13 @@
         <v>80448</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -3946,13 +3976,13 @@
         <v>145113</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3997,13 @@
         <v>76468</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>83</v>
@@ -3982,13 +4012,13 @@
         <v>82841</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>160</v>
@@ -3997,13 +4027,13 @@
         <v>159309</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4048,13 @@
         <v>49100</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>48</v>
@@ -4033,13 +4063,13 @@
         <v>43972</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>96</v>
@@ -4048,13 +4078,13 @@
         <v>93072</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4099,13 @@
         <v>18930</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -4084,13 +4114,13 @@
         <v>9504</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -4099,13 +4129,13 @@
         <v>28433</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4150,13 @@
         <v>993</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4135,13 +4165,13 @@
         <v>914</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -4150,13 +4180,13 @@
         <v>1907</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,7 +4242,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4224,13 +4254,13 @@
         <v>107271</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>134</v>
@@ -4239,13 +4269,13 @@
         <v>145428</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>240</v>
@@ -4254,13 +4284,13 @@
         <v>252699</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4305,13 @@
         <v>81660</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>66</v>
@@ -4290,13 +4320,13 @@
         <v>65455</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M35" s="7">
         <v>146</v>
@@ -4305,13 +4335,13 @@
         <v>147116</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4356,13 @@
         <v>57743</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>54</v>
@@ -4341,13 +4371,13 @@
         <v>53171</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="M36" s="7">
         <v>110</v>
@@ -4356,13 +4386,13 @@
         <v>110914</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4407,13 @@
         <v>13427</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -4392,13 +4422,13 @@
         <v>9060</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>23</v>
@@ -4407,13 +4437,13 @@
         <v>22487</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4458,13 @@
         <v>3022</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4446,10 +4476,10 @@
         <v>99</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4458,13 +4488,13 @@
         <v>3022</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,7 +4550,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4532,13 +4562,13 @@
         <v>185126</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>202</v>
@@ -4547,13 +4577,13 @@
         <v>227469</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>369</v>
@@ -4562,13 +4592,13 @@
         <v>412595</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4613,13 @@
         <v>231991</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>229</v>
@@ -4598,13 +4628,13 @@
         <v>240423</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>431</v>
@@ -4613,13 +4643,13 @@
         <v>472414</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>82</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4664,13 @@
         <v>171654</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>172</v>
@@ -4649,13 +4679,13 @@
         <v>177505</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M42" s="7">
         <v>323</v>
@@ -4667,10 +4697,10 @@
         <v>24</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4715,13 @@
         <v>48084</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -4700,13 +4730,13 @@
         <v>32107</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M43" s="7">
         <v>74</v>
@@ -4715,13 +4745,13 @@
         <v>80192</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>307</v>
+        <v>180</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,10 +4769,10 @@
         <v>95</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -4751,13 +4781,13 @@
         <v>2756</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>311</v>
+        <v>96</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M44" s="7">
         <v>9</v>
@@ -4766,13 +4796,13 @@
         <v>9376</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4858,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4840,10 +4870,10 @@
         <v>189061</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>320</v>
@@ -4873,10 +4903,10 @@
         <v>66</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4921,13 @@
         <v>226252</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>324</v>
+        <v>62</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H47" s="7">
         <v>241</v>
@@ -4906,13 +4936,13 @@
         <v>258133</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M47" s="7">
         <v>456</v>
@@ -4921,13 +4951,13 @@
         <v>484385</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4972,13 @@
         <v>253706</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H48" s="7">
         <v>229</v>
@@ -4957,13 +4987,13 @@
         <v>240623</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>210</v>
+        <v>335</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="M48" s="7">
         <v>473</v>
@@ -4972,13 +5002,13 @@
         <v>494329</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,16 +5020,16 @@
         <v>102</v>
       </c>
       <c r="D49" s="7">
-        <v>106527</v>
+        <v>106528</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H49" s="7">
         <v>72</v>
@@ -5008,13 +5038,13 @@
         <v>76172</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M49" s="7">
         <v>174</v>
@@ -5023,13 +5053,13 @@
         <v>182699</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5074,13 @@
         <v>2012</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H50" s="7">
         <v>9</v>
@@ -5059,13 +5089,13 @@
         <v>8852</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M50" s="7">
         <v>11</v>
@@ -5074,10 +5104,10 @@
         <v>10864</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>354</v>
@@ -5092,7 +5122,7 @@
         <v>749</v>
       </c>
       <c r="D51" s="7">
-        <v>777557</v>
+        <v>777558</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>58</v>
@@ -5154,7 +5184,7 @@
         <v>356</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>357</v>
+        <v>118</v>
       </c>
       <c r="H52" s="7">
         <v>1079</v>
@@ -5163,13 +5193,13 @@
         <v>1209170</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M52" s="7">
         <v>2000</v>
@@ -5178,13 +5208,13 @@
         <v>2159245</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5229,13 @@
         <v>991874</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>363</v>
+        <v>128</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H53" s="7">
         <v>1034</v>
@@ -5214,13 +5244,13 @@
         <v>1084925</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M53" s="7">
         <v>1969</v>
@@ -5229,13 +5259,13 @@
         <v>2076800</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5280,13 @@
         <v>1012881</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H54" s="7">
         <v>933</v>
@@ -5265,13 +5295,13 @@
         <v>950747</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M54" s="7">
         <v>1885</v>
@@ -5280,13 +5310,13 @@
         <v>1963628</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5331,13 @@
         <v>372357</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H55" s="7">
         <v>247</v>
@@ -5316,13 +5346,13 @@
         <v>250515</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M55" s="7">
         <v>607</v>
@@ -5331,13 +5361,13 @@
         <v>622872</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5382,13 @@
         <v>46579</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>389</v>
+        <v>50</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H56" s="7">
         <v>26</v>
@@ -5367,13 +5397,13 @@
         <v>25788</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>226</v>
+        <v>389</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>392</v>
+        <v>314</v>
       </c>
       <c r="M56" s="7">
         <v>71</v>
@@ -5382,13 +5412,13 @@
         <v>72367</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>142</v>
+        <v>391</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>50</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,7 +5430,7 @@
         <v>3213</v>
       </c>
       <c r="D57" s="7">
-        <v>3373765</v>
+        <v>3373766</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>58</v>
@@ -5444,7 +5474,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -5468,7 +5498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11343723-A5C9-4D1F-9B00-31ED6DEA7746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36B97DC-D592-4E48-8EDD-8B7C3ACE4DD6}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5485,7 +5515,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5592,13 +5622,13 @@
         <v>104486</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>294</v>
@@ -5607,13 +5637,13 @@
         <v>136211</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>449</v>
@@ -5622,13 +5652,13 @@
         <v>240697</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5673,13 @@
         <v>133531</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>215</v>
@@ -5658,13 +5688,13 @@
         <v>115007</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>362</v>
@@ -5673,13 +5703,13 @@
         <v>248537</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5724,13 @@
         <v>22281</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -5709,13 +5739,13 @@
         <v>18859</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M6" s="7">
         <v>57</v>
@@ -5724,13 +5754,13 @@
         <v>41140</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,10 +5778,10 @@
         <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5760,13 +5790,13 @@
         <v>1326</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5775,13 +5805,13 @@
         <v>1326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,10 +5829,10 @@
         <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5814,10 +5844,10 @@
         <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>425</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5829,7 +5859,7 @@
         <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>426</v>
@@ -5906,7 +5936,7 @@
         <v>428</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="H10" s="7">
         <v>294</v>
@@ -5915,13 +5945,13 @@
         <v>203561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M10" s="7">
         <v>413</v>
@@ -5930,10 +5960,10 @@
         <v>336610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>434</v>
@@ -5981,7 +6011,7 @@
         <v>457576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>441</v>
@@ -6023,7 +6053,7 @@
         <v>447</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" s="7">
         <v>199</v>
@@ -6032,13 +6062,13 @@
         <v>245569</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>296</v>
+        <v>448</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6083,13 @@
         <v>17930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -6068,13 +6098,13 @@
         <v>12462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>103</v>
+        <v>455</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -6083,13 +6113,13 @@
         <v>30392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>456</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6134,13 @@
         <v>1462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6119,13 +6149,13 @@
         <v>760</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -6140,7 +6170,7 @@
         <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6238,13 @@
         <v>84469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>356</v>
+        <v>464</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>215</v>
@@ -6226,10 +6256,10 @@
         <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M16" s="7">
         <v>335</v>
@@ -6238,13 +6268,13 @@
         <v>213705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6289,13 @@
         <v>118624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -6274,13 +6304,13 @@
         <v>134725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>476</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -6289,13 +6319,13 @@
         <v>253349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6340,13 @@
         <v>101306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H18" s="7">
         <v>113</v>
@@ -6325,13 +6355,13 @@
         <v>88317</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>249</v>
+        <v>484</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
@@ -6340,13 +6370,13 @@
         <v>189623</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6391,13 @@
         <v>12603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6376,13 +6406,13 @@
         <v>13432</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -6391,13 +6421,13 @@
         <v>26035</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,13 +6442,13 @@
         <v>925</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6427,13 +6457,13 @@
         <v>1163</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>496</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -6442,13 +6472,13 @@
         <v>2088</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,7 +6534,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6516,13 +6546,13 @@
         <v>74444</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>266</v>
@@ -6531,13 +6561,13 @@
         <v>136316</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -6546,13 +6576,13 @@
         <v>210760</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +6597,13 @@
         <v>143475</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
@@ -6582,13 +6612,13 @@
         <v>168276</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>512</v>
+        <v>210</v>
       </c>
       <c r="M23" s="7">
         <v>352</v>
@@ -6597,13 +6627,13 @@
         <v>311751</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>518</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6648,13 @@
         <v>88188</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>515</v>
+        <v>376</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H24" s="7">
         <v>96</v>
@@ -6633,13 +6663,13 @@
         <v>117776</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>523</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="M24" s="7">
         <v>155</v>
@@ -6648,13 +6678,13 @@
         <v>205964</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,13 +6699,13 @@
         <v>16133</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -6684,13 +6714,13 @@
         <v>4279</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>524</v>
+        <v>387</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>529</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -6699,13 +6729,13 @@
         <v>20412</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>526</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>527</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,10 +6753,10 @@
         <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -6735,13 +6765,13 @@
         <v>1909</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>526</v>
+        <v>236</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -6750,13 +6780,13 @@
         <v>1909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,7 +6842,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6824,13 +6854,13 @@
         <v>24842</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -6839,13 +6869,13 @@
         <v>24193</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M28" s="7">
         <v>93</v>
@@ -6854,13 +6884,13 @@
         <v>49034</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,13 +6905,13 @@
         <v>119531</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H29" s="7">
         <v>328</v>
@@ -6890,13 +6920,13 @@
         <v>155608</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M29" s="7">
         <v>500</v>
@@ -6905,13 +6935,13 @@
         <v>275138</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,13 +6956,13 @@
         <v>49140</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H30" s="7">
         <v>102</v>
@@ -6941,13 +6971,13 @@
         <v>49184</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -6956,13 +6986,13 @@
         <v>98324</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>107</v>
+        <v>556</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,13 +7007,13 @@
         <v>3236</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -6992,13 +7022,13 @@
         <v>2056</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>558</v>
+        <v>350</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -7007,13 +7037,13 @@
         <v>5291</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>556</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,10 +7061,10 @@
         <v>99</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7046,10 +7076,10 @@
         <v>99</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7061,10 +7091,10 @@
         <v>99</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,7 +7150,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7132,13 +7162,13 @@
         <v>87390</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H34" s="7">
         <v>238</v>
@@ -7147,13 +7177,13 @@
         <v>111798</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="M34" s="7">
         <v>392</v>
@@ -7162,13 +7192,13 @@
         <v>199188</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>569</v>
+        <v>33</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,13 +7213,13 @@
         <v>105528</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>339</v>
+        <v>575</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="H35" s="7">
         <v>172</v>
@@ -7198,13 +7228,13 @@
         <v>121514</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="M35" s="7">
         <v>303</v>
@@ -7213,13 +7243,13 @@
         <v>227042</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>116</v>
+        <v>518</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>204</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,13 +7264,13 @@
         <v>74624</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>12</v>
+        <v>582</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>368</v>
+        <v>584</v>
       </c>
       <c r="H36" s="7">
         <v>49</v>
@@ -7249,13 +7279,13 @@
         <v>40692</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M36" s="7">
         <v>126</v>
@@ -7264,13 +7294,13 @@
         <v>115315</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>67</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,13 +7315,13 @@
         <v>8798</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7300,13 +7330,13 @@
         <v>1618</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -7315,13 +7345,13 @@
         <v>10417</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,13 +7366,13 @@
         <v>883</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>496</v>
+        <v>316</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7354,10 +7384,10 @@
         <v>99</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -7366,13 +7396,13 @@
         <v>883</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,7 +7458,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7440,13 +7470,13 @@
         <v>197067</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="H40" s="7">
         <v>409</v>
@@ -7455,13 +7485,13 @@
         <v>379949</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>237</v>
+        <v>602</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="M40" s="7">
         <v>622</v>
@@ -7470,13 +7500,13 @@
         <v>577016</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7521,13 @@
         <v>215549</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H41" s="7">
         <v>337</v>
@@ -7506,13 +7536,13 @@
         <v>238057</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="M41" s="7">
         <v>550</v>
@@ -7521,13 +7551,13 @@
         <v>453606</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7572,13 @@
         <v>151819</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>367</v>
+        <v>616</v>
       </c>
       <c r="H42" s="7">
         <v>174</v>
@@ -7557,13 +7587,13 @@
         <v>152201</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="M42" s="7">
         <v>298</v>
@@ -7572,13 +7602,13 @@
         <v>304020</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7623,13 @@
         <v>46320</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="H43" s="7">
         <v>33</v>
@@ -7608,13 +7638,13 @@
         <v>30635</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>97</v>
+        <v>627</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="M43" s="7">
         <v>68</v>
@@ -7623,13 +7653,13 @@
         <v>76955</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7674,13 @@
         <v>17000</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -7659,10 +7689,10 @@
         <v>1816</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>101</v>
@@ -7674,13 +7704,13 @@
         <v>18815</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>50</v>
+        <v>392</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>627</v>
+        <v>53</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,7 +7766,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7748,13 +7778,13 @@
         <v>168644</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="H46" s="7">
         <v>337</v>
@@ -7763,13 +7793,13 @@
         <v>238134</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>633</v>
+        <v>200</v>
       </c>
       <c r="M46" s="7">
         <v>518</v>
@@ -7778,13 +7808,13 @@
         <v>406777</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7829,13 @@
         <v>230602</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="H47" s="7">
         <v>333</v>
@@ -7814,13 +7844,13 @@
         <v>274645</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="M47" s="7">
         <v>556</v>
@@ -7829,13 +7859,13 @@
         <v>505247</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>367</v>
+        <v>616</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>373</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7880,13 @@
         <v>282590</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>336</v>
+        <v>653</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="H48" s="7">
         <v>319</v>
@@ -7865,13 +7895,13 @@
         <v>281913</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>645</v>
+        <v>360</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="M48" s="7">
         <v>578</v>
@@ -7880,13 +7910,13 @@
         <v>564502</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7931,13 @@
         <v>111313</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="H49" s="7">
         <v>69</v>
@@ -7916,13 +7946,13 @@
         <v>69093</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="M49" s="7">
         <v>157</v>
@@ -7931,13 +7961,13 @@
         <v>180406</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>658</v>
+        <v>44</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7982,13 @@
         <v>66279</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>56</v>
+        <v>669</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -7967,13 +7997,13 @@
         <v>4649</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -7982,13 +8012,13 @@
         <v>70929</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8086,13 @@
         <v>874389</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>32</v>
+        <v>678</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="H52" s="7">
         <v>2109</v>
@@ -8071,13 +8101,13 @@
         <v>1359399</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>671</v>
+        <v>340</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="M52" s="7">
         <v>3185</v>
@@ -8086,13 +8116,13 @@
         <v>2233788</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>71</v>
+        <v>683</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8137,13 @@
         <v>1300309</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="H53" s="7">
         <v>2077</v>
@@ -8122,13 +8152,13 @@
         <v>1431937</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M53" s="7">
         <v>3392</v>
@@ -8137,13 +8167,13 @@
         <v>2732246</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8188,13 @@
         <v>903335</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="H54" s="7">
         <v>1006</v>
@@ -8176,10 +8206,10 @@
         <v>21</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="M54" s="7">
         <v>1789</v>
@@ -8188,13 +8218,13 @@
         <v>1764458</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,13 +8239,13 @@
         <v>216333</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>691</v>
+        <v>90</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>179</v>
+        <v>701</v>
       </c>
       <c r="H55" s="7">
         <v>144</v>
@@ -8224,13 +8254,13 @@
         <v>134902</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="M55" s="7">
         <v>313</v>
@@ -8239,13 +8269,13 @@
         <v>351235</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,13 +8290,13 @@
         <v>86549</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="H56" s="7">
         <v>14</v>
@@ -8275,13 +8305,13 @@
         <v>10296</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="M56" s="7">
         <v>42</v>
@@ -8290,13 +8320,13 @@
         <v>96845</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,7 +8382,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9423A8-6539-4930-BD5C-5C6BBCB05AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C30112F-7543-4B14-B261-F15493CC3516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA753A28-C6FD-429B-8297-E3CB0B9F52E0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF87188F-6D2F-491F-9439-5336E76EA534}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="720">
   <si>
     <t>Población según la frecuencia de consumo de comida rápida en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -75,2101 +75,2119 @@
     <t>32,71%</t>
   </si>
   <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
   </si>
   <si>
     <t>36,03%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>0,51%</t>
@@ -2178,7 +2196,7 @@
     <t>1,35%</t>
   </si>
   <si>
-    <t>4,71%</t>
+    <t>4,59%</t>
   </si>
 </sst>
 </file>
@@ -2590,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F53608-667C-4105-A3EC-5EE3127D4586}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1030B93-6096-427B-839E-4AA4F4AD18E8}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3076,10 +3094,10 @@
         <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>143</v>
@@ -3088,13 +3106,13 @@
         <v>154071</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -3103,13 +3121,13 @@
         <v>282903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3142,13 @@
         <v>181818</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>172</v>
@@ -3139,13 +3157,13 @@
         <v>179036</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>341</v>
@@ -3154,13 +3172,13 @@
         <v>360854</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3193,13 @@
         <v>62407</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -3190,13 +3208,13 @@
         <v>39112</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -3205,13 +3223,13 @@
         <v>101519</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3244,13 @@
         <v>5191</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3241,13 +3259,13 @@
         <v>985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3256,13 +3274,13 @@
         <v>6175</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,7 +3336,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3330,13 +3348,13 @@
         <v>57750</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>95</v>
@@ -3345,13 +3363,13 @@
         <v>103245</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -3360,13 +3378,13 @@
         <v>160995</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,7 +3399,7 @@
         <v>101272</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>115</v>
@@ -3743,10 +3761,10 @@
         <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>104</v>
@@ -3755,7 +3773,7 @@
         <v>107348</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>172</v>
@@ -3845,10 +3863,10 @@
         <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3857,13 +3875,13 @@
         <v>3678</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -3872,13 +3890,13 @@
         <v>12134</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,7 +3952,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3946,13 +3964,13 @@
         <v>64665</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -3961,13 +3979,13 @@
         <v>80448</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -3976,13 +3994,13 @@
         <v>145113</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +4015,13 @@
         <v>76468</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>83</v>
@@ -4012,13 +4030,13 @@
         <v>82841</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>160</v>
@@ -4027,13 +4045,13 @@
         <v>159309</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4066,13 @@
         <v>49100</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>48</v>
@@ -4063,13 +4081,13 @@
         <v>43972</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>96</v>
@@ -4078,13 +4096,13 @@
         <v>93072</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4117,13 @@
         <v>18930</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -4114,13 +4132,13 @@
         <v>9504</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -4129,13 +4147,13 @@
         <v>28433</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4168,13 @@
         <v>993</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4165,13 +4183,13 @@
         <v>914</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -4180,13 +4198,13 @@
         <v>1907</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,7 +4260,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4254,13 +4272,13 @@
         <v>107271</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>134</v>
@@ -4269,13 +4287,13 @@
         <v>145428</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>240</v>
@@ -4284,13 +4302,13 @@
         <v>252699</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4323,13 @@
         <v>81660</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>66</v>
@@ -4320,13 +4338,13 @@
         <v>65455</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>146</v>
@@ -4335,13 +4353,13 @@
         <v>147116</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4374,13 @@
         <v>57743</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>54</v>
@@ -4371,13 +4389,13 @@
         <v>53171</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>110</v>
@@ -4386,13 +4404,13 @@
         <v>110914</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4425,13 @@
         <v>13427</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -4422,13 +4440,13 @@
         <v>9060</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>23</v>
@@ -4437,13 +4455,13 @@
         <v>22487</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4476,13 @@
         <v>3022</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4473,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4488,13 +4506,13 @@
         <v>3022</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,10 +4598,10 @@
         <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>369</v>
@@ -4592,13 +4610,13 @@
         <v>412595</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4631,13 @@
         <v>231991</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>229</v>
@@ -4628,13 +4646,13 @@
         <v>240423</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>431</v>
@@ -4643,13 +4661,13 @@
         <v>472414</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4682,13 @@
         <v>171654</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>172</v>
@@ -4679,13 +4697,13 @@
         <v>177505</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M42" s="7">
         <v>323</v>
@@ -4697,10 +4715,10 @@
         <v>24</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4733,13 @@
         <v>48084</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -4730,13 +4748,13 @@
         <v>32107</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M43" s="7">
         <v>74</v>
@@ -4745,10 +4763,10 @@
         <v>80192</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>310</v>
@@ -4766,7 +4784,7 @@
         <v>6619</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>311</v>
@@ -4781,7 +4799,7 @@
         <v>2756</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>313</v>
@@ -4873,10 +4891,10 @@
         <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>199</v>
@@ -4885,13 +4903,13 @@
         <v>236680</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>385</v>
@@ -4903,10 +4921,10 @@
         <v>66</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4939,13 @@
         <v>226252</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>62</v>
+        <v>327</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H47" s="7">
         <v>241</v>
@@ -4936,13 +4954,13 @@
         <v>258133</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>328</v>
+        <v>206</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M47" s="7">
         <v>456</v>
@@ -4951,13 +4969,13 @@
         <v>484385</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4990,13 @@
         <v>253706</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H48" s="7">
         <v>229</v>
@@ -4987,13 +5005,13 @@
         <v>240623</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="M48" s="7">
         <v>473</v>
@@ -5002,13 +5020,13 @@
         <v>494329</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,16 +5038,16 @@
         <v>102</v>
       </c>
       <c r="D49" s="7">
-        <v>106528</v>
+        <v>106527</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H49" s="7">
         <v>72</v>
@@ -5038,13 +5056,13 @@
         <v>76172</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M49" s="7">
         <v>174</v>
@@ -5053,13 +5071,13 @@
         <v>182699</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,10 +5095,10 @@
         <v>145</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H50" s="7">
         <v>9</v>
@@ -5089,13 +5107,13 @@
         <v>8852</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M50" s="7">
         <v>11</v>
@@ -5104,13 +5122,13 @@
         <v>10864</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>271</v>
+        <v>358</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,7 +5140,7 @@
         <v>749</v>
       </c>
       <c r="D51" s="7">
-        <v>777558</v>
+        <v>777557</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>58</v>
@@ -5178,13 +5196,13 @@
         <v>950074</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>118</v>
+        <v>362</v>
       </c>
       <c r="H52" s="7">
         <v>1079</v>
@@ -5193,13 +5211,13 @@
         <v>1209170</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M52" s="7">
         <v>2000</v>
@@ -5208,13 +5226,13 @@
         <v>2159245</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>359</v>
+        <v>251</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5247,13 @@
         <v>991874</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>128</v>
+        <v>368</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>362</v>
+        <v>243</v>
       </c>
       <c r="H53" s="7">
         <v>1034</v>
@@ -5244,13 +5262,13 @@
         <v>1084925</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>364</v>
+        <v>201</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M53" s="7">
         <v>1969</v>
@@ -5259,13 +5277,13 @@
         <v>2076800</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5298,13 @@
         <v>1012881</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H54" s="7">
         <v>933</v>
@@ -5295,13 +5313,13 @@
         <v>950747</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M54" s="7">
         <v>1885</v>
@@ -5310,13 +5328,13 @@
         <v>1963628</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5349,13 @@
         <v>372357</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H55" s="7">
         <v>247</v>
@@ -5346,13 +5364,13 @@
         <v>250515</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M55" s="7">
         <v>607</v>
@@ -5361,13 +5379,13 @@
         <v>622872</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5400,13 @@
         <v>46579</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>50</v>
+        <v>392</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="H56" s="7">
         <v>26</v>
@@ -5397,13 +5415,13 @@
         <v>25788</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
       <c r="M56" s="7">
         <v>71</v>
@@ -5412,13 +5430,13 @@
         <v>72367</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>392</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,7 +5492,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5498,7 +5516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36B97DC-D592-4E48-8EDD-8B7C3ACE4DD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0ED836-D67F-4508-ACEC-028F5B654D27}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5515,7 +5533,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5622,13 +5640,13 @@
         <v>104486</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H4" s="7">
         <v>294</v>
@@ -5637,13 +5655,13 @@
         <v>136211</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M4" s="7">
         <v>449</v>
@@ -5652,13 +5670,13 @@
         <v>240697</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5691,13 @@
         <v>133531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H5" s="7">
         <v>215</v>
@@ -5688,13 +5706,13 @@
         <v>115007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M5" s="7">
         <v>362</v>
@@ -5703,13 +5721,13 @@
         <v>248537</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5742,13 @@
         <v>22281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -5739,13 +5757,13 @@
         <v>18859</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="M6" s="7">
         <v>57</v>
@@ -5754,13 +5772,13 @@
         <v>41140</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>426</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5793,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5790,13 +5808,13 @@
         <v>1326</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5805,13 +5823,13 @@
         <v>1326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5844,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5841,13 +5859,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5856,13 +5874,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5948,13 @@
         <v>133048</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="H10" s="7">
         <v>294</v>
@@ -5945,13 +5963,13 @@
         <v>203561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="M10" s="7">
         <v>413</v>
@@ -5960,13 +5978,13 @@
         <v>336610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5999,13 @@
         <v>233470</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="H11" s="7">
         <v>281</v>
@@ -5996,13 +6014,13 @@
         <v>224105</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M11" s="7">
         <v>459</v>
@@ -6014,10 +6032,10 @@
         <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6050,13 @@
         <v>133387</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="H12" s="7">
         <v>125</v>
@@ -6047,13 +6065,13 @@
         <v>112182</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>126</v>
+        <v>455</v>
       </c>
       <c r="M12" s="7">
         <v>199</v>
@@ -6062,13 +6080,13 @@
         <v>245569</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6101,13 @@
         <v>17930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -6098,13 +6116,13 @@
         <v>12462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -6113,13 +6131,13 @@
         <v>30392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>466</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6152,13 @@
         <v>1462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6149,13 +6167,13 @@
         <v>760</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -6164,13 +6182,13 @@
         <v>2221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>472</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,7 +6244,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6238,13 +6256,13 @@
         <v>84469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="H16" s="7">
         <v>215</v>
@@ -6253,13 +6271,13 @@
         <v>129236</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="M16" s="7">
         <v>335</v>
@@ -6268,13 +6286,13 @@
         <v>213705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6307,13 @@
         <v>118624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -6304,13 +6322,13 @@
         <v>134725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -6319,13 +6337,13 @@
         <v>253349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +6358,13 @@
         <v>101306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>482</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="H18" s="7">
         <v>113</v>
@@ -6355,13 +6373,13 @@
         <v>88317</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>486</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
@@ -6370,13 +6388,13 @@
         <v>189623</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,13 +6409,13 @@
         <v>12603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6406,13 +6424,13 @@
         <v>13432</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -6421,13 +6439,13 @@
         <v>26035</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6460,13 @@
         <v>925</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>500</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6457,13 +6475,13 @@
         <v>1163</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>508</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -6472,13 +6490,13 @@
         <v>2088</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,13 +6564,13 @@
         <v>74444</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="H22" s="7">
         <v>266</v>
@@ -6561,13 +6579,13 @@
         <v>136316</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -6576,13 +6594,13 @@
         <v>210760</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,13 +6615,13 @@
         <v>143475</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
@@ -6612,13 +6630,13 @@
         <v>168276</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>202</v>
+        <v>525</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>210</v>
+        <v>526</v>
       </c>
       <c r="M23" s="7">
         <v>352</v>
@@ -6627,13 +6645,13 @@
         <v>311751</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6666,13 @@
         <v>88188</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>376</v>
+        <v>529</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H24" s="7">
         <v>96</v>
@@ -6663,13 +6681,13 @@
         <v>117776</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M24" s="7">
         <v>155</v>
@@ -6678,13 +6696,13 @@
         <v>205964</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>202</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,13 +6717,13 @@
         <v>16133</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -6714,13 +6732,13 @@
         <v>4279</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>387</v>
+        <v>539</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -6729,13 +6747,13 @@
         <v>20412</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>229</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,13 +6768,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -6765,13 +6783,13 @@
         <v>1909</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>236</v>
+        <v>544</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -6780,13 +6798,13 @@
         <v>1909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,7 +6860,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6854,13 +6872,13 @@
         <v>24842</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -6869,13 +6887,13 @@
         <v>24193</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>537</v>
+        <v>310</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="M28" s="7">
         <v>93</v>
@@ -6884,13 +6902,13 @@
         <v>49034</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,13 +6923,13 @@
         <v>119531</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="H29" s="7">
         <v>328</v>
@@ -6920,13 +6938,13 @@
         <v>155608</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="M29" s="7">
         <v>500</v>
@@ -6935,13 +6953,13 @@
         <v>275138</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,13 +6974,13 @@
         <v>49140</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="H30" s="7">
         <v>102</v>
@@ -6971,13 +6989,13 @@
         <v>49184</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -6986,13 +7004,13 @@
         <v>98324</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,13 +7025,13 @@
         <v>3236</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>559</v>
+        <v>232</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -7022,13 +7040,13 @@
         <v>2056</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>562</v>
+        <v>508</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -7037,13 +7055,13 @@
         <v>5291</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>560</v>
+        <v>274</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,13 +7076,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>462</v>
+        <v>575</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7073,13 +7091,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7088,13 +7106,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,7 +7168,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7162,13 +7180,13 @@
         <v>87390</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="H34" s="7">
         <v>238</v>
@@ -7177,13 +7195,13 @@
         <v>111798</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="M34" s="7">
         <v>392</v>
@@ -7192,13 +7210,13 @@
         <v>199188</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>33</v>
+        <v>583</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>572</v>
+        <v>287</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,13 +7231,13 @@
         <v>105528</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="H35" s="7">
         <v>172</v>
@@ -7228,13 +7246,13 @@
         <v>121514</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>578</v>
+        <v>524</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="M35" s="7">
         <v>303</v>
@@ -7243,13 +7261,13 @@
         <v>227042</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,13 +7282,13 @@
         <v>74624</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="H36" s="7">
         <v>49</v>
@@ -7279,13 +7297,13 @@
         <v>40692</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="M36" s="7">
         <v>126</v>
@@ -7294,13 +7312,13 @@
         <v>115315</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,13 +7333,13 @@
         <v>8798</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>591</v>
+        <v>317</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7330,13 +7348,13 @@
         <v>1618</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -7345,13 +7363,13 @@
         <v>10417</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>596</v>
+        <v>353</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,13 +7384,13 @@
         <v>883</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>316</v>
+        <v>508</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>559</v>
+        <v>608</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7381,13 +7399,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -7396,13 +7414,13 @@
         <v>883</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,13 +7488,13 @@
         <v>197067</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="H40" s="7">
         <v>409</v>
@@ -7485,13 +7503,13 @@
         <v>379949</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>602</v>
+        <v>415</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="M40" s="7">
         <v>622</v>
@@ -7500,13 +7518,13 @@
         <v>577016</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,13 +7539,13 @@
         <v>215549</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>573</v>
+        <v>618</v>
       </c>
       <c r="H41" s="7">
         <v>337</v>
@@ -7536,13 +7554,13 @@
         <v>238057</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="M41" s="7">
         <v>550</v>
@@ -7551,13 +7569,13 @@
         <v>453606</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>488</v>
+        <v>623</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,13 +7590,13 @@
         <v>151819</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>616</v>
+        <v>62</v>
       </c>
       <c r="H42" s="7">
         <v>174</v>
@@ -7587,13 +7605,13 @@
         <v>152201</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>619</v>
+        <v>512</v>
       </c>
       <c r="M42" s="7">
         <v>298</v>
@@ -7602,13 +7620,13 @@
         <v>304020</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,13 +7641,13 @@
         <v>46320</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>624</v>
+        <v>536</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="H43" s="7">
         <v>33</v>
@@ -7638,13 +7656,13 @@
         <v>30635</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="M43" s="7">
         <v>68</v>
@@ -7653,13 +7671,13 @@
         <v>76955</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,13 +7692,13 @@
         <v>17000</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -7689,13 +7707,13 @@
         <v>1816</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>101</v>
+        <v>645</v>
       </c>
       <c r="M44" s="7">
         <v>19</v>
@@ -7704,13 +7722,13 @@
         <v>18815</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>392</v>
+        <v>646</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>53</v>
+        <v>647</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>147</v>
+        <v>648</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,13 +7796,13 @@
         <v>168644</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>639</v>
+        <v>166</v>
       </c>
       <c r="H46" s="7">
         <v>337</v>
@@ -7793,13 +7811,13 @@
         <v>238134</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>200</v>
+        <v>652</v>
       </c>
       <c r="M46" s="7">
         <v>518</v>
@@ -7808,13 +7826,13 @@
         <v>406777</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,13 +7847,13 @@
         <v>230602</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="H47" s="7">
         <v>333</v>
@@ -7844,13 +7862,13 @@
         <v>274645</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>278</v>
+        <v>660</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="M47" s="7">
         <v>556</v>
@@ -7859,13 +7877,13 @@
         <v>505247</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>616</v>
+        <v>201</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,13 +7898,13 @@
         <v>282590</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="H48" s="7">
         <v>319</v>
@@ -7895,13 +7913,13 @@
         <v>281913</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>655</v>
+        <v>336</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>656</v>
+        <v>14</v>
       </c>
       <c r="M48" s="7">
         <v>578</v>
@@ -7910,13 +7928,13 @@
         <v>564502</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>658</v>
+        <v>326</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +7949,13 @@
         <v>111313</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="H49" s="7">
         <v>69</v>
@@ -7946,13 +7964,13 @@
         <v>69093</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="M49" s="7">
         <v>157</v>
@@ -7961,13 +7979,13 @@
         <v>180406</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>44</v>
+        <v>676</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7982,13 +8000,13 @@
         <v>66279</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>669</v>
+        <v>264</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -7997,13 +8015,13 @@
         <v>4649</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>671</v>
+        <v>355</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>672</v>
+        <v>275</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -8012,13 +8030,13 @@
         <v>70929</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,13 +8104,13 @@
         <v>874389</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="H52" s="7">
         <v>2109</v>
@@ -8101,13 +8119,13 @@
         <v>1359399</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>340</v>
+        <v>688</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="M52" s="7">
         <v>3185</v>
@@ -8116,13 +8134,13 @@
         <v>2233788</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8155,13 @@
         <v>1300309</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>685</v>
+        <v>618</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>687</v>
+        <v>119</v>
       </c>
       <c r="H53" s="7">
         <v>2077</v>
@@ -8152,13 +8170,13 @@
         <v>1431937</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="M53" s="7">
         <v>3392</v>
@@ -8167,13 +8185,13 @@
         <v>2732246</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8188,13 +8206,13 @@
         <v>903335</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>641</v>
+        <v>700</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>694</v>
+        <v>284</v>
       </c>
       <c r="H54" s="7">
         <v>1006</v>
@@ -8206,10 +8224,10 @@
         <v>21</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="M54" s="7">
         <v>1789</v>
@@ -8218,13 +8236,13 @@
         <v>1764458</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8239,13 +8257,13 @@
         <v>216333</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>90</v>
+        <v>707</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="H55" s="7">
         <v>144</v>
@@ -8254,13 +8272,13 @@
         <v>134902</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="M55" s="7">
         <v>313</v>
@@ -8269,13 +8287,13 @@
         <v>351235</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>707</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8290,13 +8308,13 @@
         <v>86549</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="H56" s="7">
         <v>14</v>
@@ -8305,13 +8323,13 @@
         <v>10296</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>461</v>
+        <v>716</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="M56" s="7">
         <v>42</v>
@@ -8320,13 +8338,13 @@
         <v>96845</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>275</v>
+        <v>428</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8368,7 +8386,7 @@
         <v>8721</v>
       </c>
       <c r="N57" s="7">
-        <v>7178571</v>
+        <v>7178572</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>58</v>
@@ -8382,7 +8400,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C30112F-7543-4B14-B261-F15493CC3516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC122F0-F8F8-441F-9E8F-E293413F2486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF87188F-6D2F-491F-9439-5336E76EA534}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{85D272AB-BC08-4093-B8C1-787255CD655D}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="717">
   <si>
     <t>Población según la frecuencia de consumo de comida rápida en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -1242,961 +1242,952 @@
     <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
 </sst>
 </file>
@@ -2608,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1030B93-6096-427B-839E-4AA4F4AD18E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5840B4E1-15BC-4460-85A0-400399E0892E}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4658,7 +4649,7 @@
         <v>431</v>
       </c>
       <c r="N41" s="7">
-        <v>472414</v>
+        <v>472415</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>33</v>
@@ -4709,7 +4700,7 @@
         <v>323</v>
       </c>
       <c r="N42" s="7">
-        <v>349159</v>
+        <v>349160</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>24</v>
@@ -4862,7 +4853,7 @@
         <v>1206</v>
       </c>
       <c r="N45" s="7">
-        <v>1323736</v>
+        <v>1323737</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>58</v>
@@ -5448,7 +5439,7 @@
         <v>3213</v>
       </c>
       <c r="D57" s="7">
-        <v>3373766</v>
+        <v>3373765</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>58</v>
@@ -5516,7 +5507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0ED836-D67F-4508-ACEC-028F5B654D27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37779D23-3B26-47DF-BC77-E08FD8855CA2}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5637,7 +5628,7 @@
         <v>155</v>
       </c>
       <c r="D4" s="7">
-        <v>104486</v>
+        <v>116182</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>401</v>
@@ -5652,7 +5643,7 @@
         <v>294</v>
       </c>
       <c r="I4" s="7">
-        <v>136211</v>
+        <v>140866</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>404</v>
@@ -5667,7 +5658,7 @@
         <v>449</v>
       </c>
       <c r="N4" s="7">
-        <v>240697</v>
+        <v>257048</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>407</v>
@@ -5688,7 +5679,7 @@
         <v>147</v>
       </c>
       <c r="D5" s="7">
-        <v>133531</v>
+        <v>168193</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>410</v>
@@ -5703,7 +5694,7 @@
         <v>215</v>
       </c>
       <c r="I5" s="7">
-        <v>115007</v>
+        <v>124800</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>413</v>
@@ -5718,7 +5709,7 @@
         <v>362</v>
       </c>
       <c r="N5" s="7">
-        <v>248537</v>
+        <v>292993</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>416</v>
@@ -5739,7 +5730,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>22281</v>
+        <v>27068</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>419</v>
@@ -5754,7 +5745,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>18859</v>
+        <v>22403</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>422</v>
@@ -5769,7 +5760,7 @@
         <v>57</v>
       </c>
       <c r="N6" s="7">
-        <v>41140</v>
+        <v>49471</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>425</v>
@@ -5778,7 +5769,7 @@
         <v>426</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,37 +5790,37 @@
         <v>272</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1326</v>
+        <v>1566</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>429</v>
+        <v>355</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1326</v>
+        <v>1566</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>431</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>432</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,7 +5841,7 @@
         <v>272</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5865,7 +5856,7 @@
         <v>272</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5880,7 +5871,7 @@
         <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,7 +5883,7 @@
         <v>331</v>
       </c>
       <c r="D9" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -5907,7 +5898,7 @@
         <v>538</v>
       </c>
       <c r="I9" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -5922,7 +5913,7 @@
         <v>869</v>
       </c>
       <c r="N9" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -5945,46 +5936,46 @@
         <v>119</v>
       </c>
       <c r="D10" s="7">
-        <v>133048</v>
+        <v>127312</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H10" s="7">
         <v>294</v>
       </c>
       <c r="I10" s="7">
-        <v>203561</v>
+        <v>187343</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M10" s="7">
         <v>413</v>
       </c>
       <c r="N10" s="7">
-        <v>336610</v>
+        <v>314656</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,46 +5987,46 @@
         <v>178</v>
       </c>
       <c r="D11" s="7">
-        <v>233470</v>
+        <v>230992</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="H11" s="7">
         <v>281</v>
       </c>
       <c r="I11" s="7">
-        <v>224105</v>
+        <v>209494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>446</v>
+        <v>288</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M11" s="7">
         <v>459</v>
       </c>
       <c r="N11" s="7">
-        <v>457576</v>
+        <v>440485</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>445</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,46 +6038,46 @@
         <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>133387</v>
+        <v>139963</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H12" s="7">
         <v>125</v>
       </c>
       <c r="I12" s="7">
-        <v>112182</v>
+        <v>104349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M12" s="7">
         <v>199</v>
       </c>
       <c r="N12" s="7">
-        <v>245569</v>
+        <v>244312</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,46 +6089,46 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>17930</v>
+        <v>18628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>12462</v>
+        <v>11672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>463</v>
+        <v>314</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>30392</v>
+        <v>30300</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>467</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,46 +6140,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1462</v>
+        <v>1495</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,7 +6191,7 @@
         <v>382</v>
       </c>
       <c r="D15" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -6215,7 +6206,7 @@
         <v>715</v>
       </c>
       <c r="I15" s="7">
-        <v>553070</v>
+        <v>513581</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -6230,7 +6221,7 @@
         <v>1097</v>
       </c>
       <c r="N15" s="7">
-        <v>1072368</v>
+        <v>1031971</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -6253,46 +6244,46 @@
         <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>84469</v>
+        <v>80777</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H16" s="7">
         <v>215</v>
       </c>
       <c r="I16" s="7">
-        <v>129236</v>
+        <v>120033</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M16" s="7">
         <v>335</v>
       </c>
       <c r="N16" s="7">
-        <v>213705</v>
+        <v>200811</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,46 +6295,46 @@
         <v>127</v>
       </c>
       <c r="D17" s="7">
-        <v>118624</v>
+        <v>116887</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
       </c>
       <c r="I17" s="7">
-        <v>134725</v>
+        <v>126087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
       </c>
       <c r="N17" s="7">
-        <v>253349</v>
+        <v>242974</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,46 +6346,46 @@
         <v>96</v>
       </c>
       <c r="D18" s="7">
-        <v>101306</v>
+        <v>100837</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>484</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H18" s="7">
         <v>113</v>
       </c>
       <c r="I18" s="7">
-        <v>88317</v>
+        <v>83100</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>381</v>
+        <v>488</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
       </c>
       <c r="N18" s="7">
-        <v>189623</v>
+        <v>183937</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,46 +6397,46 @@
         <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>12603</v>
+        <v>12511</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>499</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>13432</v>
+        <v>12821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>26035</v>
+        <v>25331</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,46 +6448,46 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>925</v>
+        <v>892</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>500</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1163</v>
+        <v>1097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>509</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>2088</v>
+        <v>1989</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,7 +6499,7 @@
         <v>355</v>
       </c>
       <c r="D21" s="7">
-        <v>317927</v>
+        <v>311904</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -6523,7 +6514,7 @@
         <v>528</v>
       </c>
       <c r="I21" s="7">
-        <v>366873</v>
+        <v>343138</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -6538,7 +6529,7 @@
         <v>883</v>
       </c>
       <c r="N21" s="7">
-        <v>684800</v>
+        <v>655042</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -6561,46 +6552,46 @@
         <v>97</v>
       </c>
       <c r="D22" s="7">
-        <v>74444</v>
+        <v>70814</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>266</v>
       </c>
       <c r="I22" s="7">
-        <v>136316</v>
+        <v>126517</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
       </c>
       <c r="N22" s="7">
-        <v>210760</v>
+        <v>197332</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,46 +6603,46 @@
         <v>124</v>
       </c>
       <c r="D23" s="7">
-        <v>143475</v>
+        <v>135366</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
       </c>
       <c r="I23" s="7">
-        <v>168276</v>
+        <v>155666</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>524</v>
+        <v>334</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="M23" s="7">
         <v>352</v>
       </c>
       <c r="N23" s="7">
-        <v>311751</v>
+        <v>291031</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,46 +6654,46 @@
         <v>59</v>
       </c>
       <c r="D24" s="7">
-        <v>88188</v>
+        <v>90556</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H24" s="7">
         <v>96</v>
       </c>
       <c r="I24" s="7">
-        <v>117776</v>
+        <v>187682</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="M24" s="7">
         <v>155</v>
       </c>
       <c r="N24" s="7">
-        <v>205964</v>
+        <v>278238</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>249</v>
+        <v>527</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>512</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,46 +6705,46 @@
         <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>16133</v>
+        <v>15821</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>4279</v>
+        <v>4039</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>539</v>
+        <v>466</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>270</v>
+        <v>502</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
       </c>
       <c r="N25" s="7">
-        <v>20412</v>
+        <v>19860</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>264</v>
+        <v>500</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,37 +6765,37 @@
         <v>272</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>1909</v>
+        <v>1813</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>544</v>
+        <v>56</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>1909</v>
+        <v>1813</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>431</v>
+        <v>536</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,7 +6807,7 @@
         <v>292</v>
       </c>
       <c r="D27" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>58</v>
@@ -6831,7 +6822,7 @@
         <v>599</v>
       </c>
       <c r="I27" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -6846,7 +6837,7 @@
         <v>891</v>
       </c>
       <c r="N27" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -6869,46 +6860,46 @@
         <v>37</v>
       </c>
       <c r="D28" s="7">
-        <v>24842</v>
+        <v>22441</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
       </c>
       <c r="I28" s="7">
-        <v>24193</v>
+        <v>22093</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>310</v>
+        <v>542</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M28" s="7">
         <v>93</v>
       </c>
       <c r="N28" s="7">
-        <v>49034</v>
+        <v>44534</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,46 +6911,46 @@
         <v>172</v>
       </c>
       <c r="D29" s="7">
-        <v>119531</v>
+        <v>108866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="H29" s="7">
         <v>328</v>
       </c>
       <c r="I29" s="7">
-        <v>155608</v>
+        <v>139798</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="M29" s="7">
         <v>500</v>
       </c>
       <c r="N29" s="7">
-        <v>275138</v>
+        <v>248664</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,46 +6962,46 @@
         <v>65</v>
       </c>
       <c r="D30" s="7">
-        <v>49140</v>
+        <v>44465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>565</v>
+        <v>15</v>
       </c>
       <c r="H30" s="7">
         <v>102</v>
       </c>
       <c r="I30" s="7">
-        <v>49184</v>
+        <v>44127</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
       </c>
       <c r="N30" s="7">
-        <v>98324</v>
+        <v>88592</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,46 +7013,46 @@
         <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>3236</v>
+        <v>2971</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>232</v>
+        <v>564</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
       </c>
       <c r="I31" s="7">
-        <v>2056</v>
+        <v>1841</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>192</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>508</v>
+        <v>316</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>530</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
       </c>
       <c r="N31" s="7">
-        <v>5291</v>
+        <v>4812</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>274</v>
+        <v>568</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7082,7 +7073,7 @@
         <v>272</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7097,7 +7088,7 @@
         <v>272</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7112,7 +7103,7 @@
         <v>272</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>431</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,7 +7115,7 @@
         <v>279</v>
       </c>
       <c r="D33" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>58</v>
@@ -7139,7 +7130,7 @@
         <v>490</v>
       </c>
       <c r="I33" s="7">
-        <v>231041</v>
+        <v>207860</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -7154,7 +7145,7 @@
         <v>769</v>
       </c>
       <c r="N33" s="7">
-        <v>427788</v>
+        <v>386601</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>58</v>
@@ -7177,46 +7168,46 @@
         <v>154</v>
       </c>
       <c r="D34" s="7">
-        <v>87390</v>
+        <v>83545</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H34" s="7">
         <v>238</v>
       </c>
       <c r="I34" s="7">
-        <v>111798</v>
+        <v>104352</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M34" s="7">
         <v>392</v>
       </c>
       <c r="N34" s="7">
-        <v>199188</v>
+        <v>187897</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>287</v>
+        <v>85</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,46 +7219,46 @@
         <v>131</v>
       </c>
       <c r="D35" s="7">
-        <v>105528</v>
+        <v>103087</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H35" s="7">
         <v>172</v>
       </c>
       <c r="I35" s="7">
-        <v>121514</v>
+        <v>113351</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M35" s="7">
         <v>303</v>
       </c>
       <c r="N35" s="7">
-        <v>227042</v>
+        <v>216438</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>591</v>
+        <v>475</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,46 +7270,46 @@
         <v>77</v>
       </c>
       <c r="D36" s="7">
-        <v>74624</v>
+        <v>73715</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H36" s="7">
         <v>49</v>
       </c>
       <c r="I36" s="7">
-        <v>40692</v>
+        <v>37947</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M36" s="7">
         <v>126</v>
       </c>
       <c r="N36" s="7">
-        <v>115315</v>
+        <v>111662</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,46 +7321,46 @@
         <v>8</v>
       </c>
       <c r="D37" s="7">
-        <v>8798</v>
+        <v>8447</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>317</v>
+        <v>599</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>1618</v>
+        <v>1406</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>100</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
       </c>
       <c r="N37" s="7">
-        <v>10417</v>
+        <v>9853</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>353</v>
+        <v>192</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,16 +7372,16 @@
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>883</v>
+        <v>841</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>508</v>
+        <v>604</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7411,16 +7402,16 @@
         <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>883</v>
+        <v>841</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>100</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,7 +7423,7 @@
         <v>371</v>
       </c>
       <c r="D39" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -7447,7 +7438,7 @@
         <v>460</v>
       </c>
       <c r="I39" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -7462,7 +7453,7 @@
         <v>831</v>
       </c>
       <c r="N39" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -7485,46 +7476,46 @@
         <v>213</v>
       </c>
       <c r="D40" s="7">
-        <v>197067</v>
+        <v>190056</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>441</v>
+        <v>608</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H40" s="7">
         <v>409</v>
       </c>
       <c r="I40" s="7">
-        <v>379949</v>
+        <v>453324</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>415</v>
+        <v>611</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="M40" s="7">
         <v>622</v>
       </c>
       <c r="N40" s="7">
-        <v>577016</v>
+        <v>643380</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,40 +7527,40 @@
         <v>213</v>
       </c>
       <c r="D41" s="7">
-        <v>215549</v>
+        <v>216014</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>363</v>
+        <v>617</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>82</v>
+        <v>618</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H41" s="7">
         <v>337</v>
       </c>
       <c r="I41" s="7">
-        <v>238057</v>
+        <v>222365</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M41" s="7">
         <v>550</v>
       </c>
       <c r="N41" s="7">
-        <v>453606</v>
+        <v>438379</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>622</v>
+        <v>362</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>623</v>
@@ -7587,7 +7578,7 @@
         <v>124</v>
       </c>
       <c r="D42" s="7">
-        <v>151819</v>
+        <v>153386</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>625</v>
@@ -7596,13 +7587,13 @@
         <v>626</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="H42" s="7">
         <v>174</v>
       </c>
       <c r="I42" s="7">
-        <v>152201</v>
+        <v>141278</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>627</v>
@@ -7611,22 +7602,22 @@
         <v>628</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>512</v>
+        <v>629</v>
       </c>
       <c r="M42" s="7">
         <v>298</v>
       </c>
       <c r="N42" s="7">
-        <v>304020</v>
+        <v>294664</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,25 +7629,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="7">
-        <v>46320</v>
+        <v>47904</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>536</v>
+        <v>634</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>633</v>
+        <v>350</v>
       </c>
       <c r="H43" s="7">
         <v>33</v>
       </c>
       <c r="I43" s="7">
-        <v>30635</v>
+        <v>29103</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>634</v>
+        <v>306</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>635</v>
@@ -7668,7 +7659,7 @@
         <v>68</v>
       </c>
       <c r="N43" s="7">
-        <v>76955</v>
+        <v>77007</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>637</v>
@@ -7689,7 +7680,7 @@
         <v>14</v>
       </c>
       <c r="D44" s="7">
-        <v>17000</v>
+        <v>16918</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>640</v>
@@ -7704,7 +7695,7 @@
         <v>5</v>
       </c>
       <c r="I44" s="7">
-        <v>1816</v>
+        <v>1746</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>643</v>
@@ -7719,16 +7710,16 @@
         <v>19</v>
       </c>
       <c r="N44" s="7">
-        <v>18815</v>
+        <v>18664</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>646</v>
+        <v>314</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>647</v>
+        <v>535</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>648</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,7 +7731,7 @@
         <v>599</v>
       </c>
       <c r="D45" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>58</v>
@@ -7755,7 +7746,7 @@
         <v>958</v>
       </c>
       <c r="I45" s="7">
-        <v>802658</v>
+        <v>847815</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>58</v>
@@ -7770,7 +7761,7 @@
         <v>1557</v>
       </c>
       <c r="N45" s="7">
-        <v>1430412</v>
+        <v>1472095</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>58</v>
@@ -7793,46 +7784,46 @@
         <v>181</v>
       </c>
       <c r="D46" s="7">
-        <v>168644</v>
+        <v>143675</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>166</v>
+        <v>590</v>
       </c>
       <c r="H46" s="7">
         <v>337</v>
       </c>
       <c r="I46" s="7">
-        <v>238134</v>
+        <v>200816</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>652</v>
       </c>
       <c r="M46" s="7">
         <v>518</v>
       </c>
       <c r="N46" s="7">
-        <v>406777</v>
+        <v>344491</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,46 +7835,46 @@
         <v>223</v>
       </c>
       <c r="D47" s="7">
-        <v>230602</v>
+        <v>194565</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="H47" s="7">
         <v>333</v>
       </c>
       <c r="I47" s="7">
-        <v>274645</v>
+        <v>226871</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>661</v>
       </c>
       <c r="M47" s="7">
         <v>556</v>
       </c>
       <c r="N47" s="7">
-        <v>505247</v>
+        <v>421436</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>201</v>
+        <v>660</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,46 +7886,46 @@
         <v>259</v>
       </c>
       <c r="D48" s="7">
-        <v>282590</v>
+        <v>239648</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>666</v>
       </c>
       <c r="H48" s="7">
         <v>319</v>
       </c>
       <c r="I48" s="7">
-        <v>281913</v>
+        <v>231553</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>367</v>
+        <v>666</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>336</v>
+        <v>667</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>14</v>
+        <v>579</v>
       </c>
       <c r="M48" s="7">
         <v>578</v>
       </c>
       <c r="N48" s="7">
-        <v>564502</v>
+        <v>471201</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>667</v>
+        <v>301</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>326</v>
+        <v>668</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,13 +7937,13 @@
         <v>88</v>
       </c>
       <c r="D49" s="7">
-        <v>111313</v>
+        <v>93588</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>670</v>
+        <v>57</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>671</v>
@@ -7961,7 +7952,7 @@
         <v>69</v>
       </c>
       <c r="I49" s="7">
-        <v>69093</v>
+        <v>54796</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>672</v>
@@ -7976,16 +7967,16 @@
         <v>157</v>
       </c>
       <c r="N49" s="7">
-        <v>180406</v>
+        <v>148384</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,46 +7988,46 @@
         <v>11</v>
       </c>
       <c r="D50" s="7">
-        <v>66279</v>
+        <v>257245</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>264</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
       </c>
       <c r="I50" s="7">
-        <v>4649</v>
+        <v>3695</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>355</v>
+        <v>679</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>275</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>680</v>
+        <v>264</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
       </c>
       <c r="N50" s="7">
-        <v>70929</v>
+        <v>260940</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>681</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,7 +8039,7 @@
         <v>762</v>
       </c>
       <c r="D51" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>58</v>
@@ -8063,7 +8054,7 @@
         <v>1062</v>
       </c>
       <c r="I51" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>58</v>
@@ -8078,7 +8069,7 @@
         <v>1824</v>
       </c>
       <c r="N51" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>58</v>
@@ -8101,46 +8092,46 @@
         <v>1076</v>
       </c>
       <c r="D52" s="7">
-        <v>874389</v>
+        <v>834803</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>686</v>
       </c>
       <c r="H52" s="7">
         <v>2109</v>
       </c>
       <c r="I52" s="7">
-        <v>1359399</v>
+        <v>1355346</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>689</v>
       </c>
       <c r="M52" s="7">
         <v>3185</v>
       </c>
       <c r="N52" s="7">
-        <v>2233788</v>
+        <v>2190148</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>690</v>
+        <v>370</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,40 +8143,40 @@
         <v>1315</v>
       </c>
       <c r="D53" s="7">
-        <v>1300309</v>
+        <v>1273970</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>119</v>
+        <v>692</v>
       </c>
       <c r="H53" s="7">
         <v>2077</v>
       </c>
       <c r="I53" s="7">
-        <v>1431937</v>
+        <v>1318430</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>696</v>
       </c>
       <c r="M53" s="7">
         <v>3392</v>
       </c>
       <c r="N53" s="7">
-        <v>2732246</v>
+        <v>2592400</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>205</v>
+        <v>696</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>697</v>
@@ -8203,7 +8194,7 @@
         <v>783</v>
       </c>
       <c r="D54" s="7">
-        <v>903335</v>
+        <v>869637</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>699</v>
@@ -8212,37 +8203,37 @@
         <v>700</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>284</v>
+        <v>701</v>
       </c>
       <c r="H54" s="7">
         <v>1006</v>
       </c>
       <c r="I54" s="7">
-        <v>861123</v>
+        <v>852439</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>21</v>
+        <v>702</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>702</v>
+        <v>381</v>
       </c>
       <c r="M54" s="7">
         <v>1789</v>
       </c>
       <c r="N54" s="7">
-        <v>1764458</v>
+        <v>1722076</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>703</v>
+        <v>126</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>704</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>705</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8254,46 +8245,46 @@
         <v>169</v>
       </c>
       <c r="D55" s="7">
-        <v>216333</v>
+        <v>199870</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>708</v>
       </c>
       <c r="H55" s="7">
         <v>144</v>
       </c>
       <c r="I55" s="7">
-        <v>134902</v>
+        <v>117243</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>709</v>
+        <v>638</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="M55" s="7">
         <v>313</v>
       </c>
       <c r="N55" s="7">
-        <v>351235</v>
+        <v>317113</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="P55" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8305,46 +8296,46 @@
         <v>28</v>
       </c>
       <c r="D56" s="7">
-        <v>86549</v>
+        <v>277391</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>715</v>
       </c>
       <c r="H56" s="7">
         <v>14</v>
       </c>
       <c r="I56" s="7">
-        <v>10296</v>
+        <v>9075</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>189</v>
+        <v>572</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>716</v>
+        <v>465</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>717</v>
+        <v>231</v>
       </c>
       <c r="M56" s="7">
         <v>42</v>
       </c>
       <c r="N56" s="7">
-        <v>96845</v>
+        <v>286466</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>428</v>
+        <v>274</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8356,7 +8347,7 @@
         <v>3371</v>
       </c>
       <c r="D57" s="7">
-        <v>3380914</v>
+        <v>3455671</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>58</v>
@@ -8371,7 +8362,7 @@
         <v>5350</v>
       </c>
       <c r="I57" s="7">
-        <v>3797657</v>
+        <v>3652534</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>58</v>
@@ -8386,7 +8377,7 @@
         <v>8721</v>
       </c>
       <c r="N57" s="7">
-        <v>7178572</v>
+        <v>7108204</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>58</v>
